--- a/CSDL_Excel.xlsx
+++ b/CSDL_Excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="335">
   <si>
     <t>Mã độc giả</t>
   </si>
@@ -1007,6 +1007,33 @@
   </si>
   <si>
     <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số điện thoại </t>
+  </si>
+  <si>
+    <t>Số CCCD</t>
+  </si>
+  <si>
+    <t>Ảnh đại diện</t>
+  </si>
+  <si>
+    <t>Mã thủ thư</t>
+  </si>
+  <si>
+    <t>Vai trò</t>
+  </si>
+  <si>
+    <t>Những tài khoản nào là độc giả thì mã thủ thư là NULL, vai trò có giá trị là 1. Tài khoản là thủ thư thì mã độc giả là NULL, vai trò có giá trị là 2.</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,6 +1121,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1375,1210 +1405,1336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H51"/>
+    <sheetView topLeftCell="G97" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" customWidth="1"/>
-    <col min="5" max="5" width="35.09765625" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" customWidth="1"/>
+    <col min="1" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.19921875" customWidth="1"/>
+    <col min="6" max="6" width="35.09765625" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="10" width="18.09765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>39264</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5">
         <v>44721</v>
       </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>37902</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
         <v>45293</v>
       </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>36474</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>38510</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="6"/>
+      <c r="H8" s="5">
         <v>45020</v>
       </c>
-      <c r="G8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5">
         <v>44204</v>
       </c>
-      <c r="G9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>37136</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="5">
+      <c r="H15" s="5">
         <v>45597</v>
       </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="5">
         <v>44684</v>
       </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5">
         <v>44752</v>
       </c>
-      <c r="G20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>38668</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="5">
+      <c r="H22" s="5">
         <v>44992</v>
       </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>38508</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="5">
+      <c r="H24" s="5">
         <v>44682</v>
       </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>37995</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="5">
+      <c r="H25" s="5">
         <v>45019</v>
       </c>
-      <c r="G25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>38394</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="5">
+      <c r="H26" s="5">
         <v>45234</v>
       </c>
-      <c r="G26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="5">
+      <c r="H27" s="5">
         <v>45476</v>
       </c>
-      <c r="G27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>45355</v>
       </c>
-      <c r="G30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>36259</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="5">
+      <c r="H31" s="5">
         <v>44811</v>
       </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>36835</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="5">
+      <c r="H33" s="5">
         <v>44504</v>
       </c>
-      <c r="G33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>37567</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="5">
         <v>37682</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="5">
         <v>36016</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>156</v>
       </c>
-      <c r="F38" s="5">
+      <c r="H38" s="5">
         <v>44749</v>
       </c>
-      <c r="G38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="5">
         <v>35491</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="5">
         <v>38262</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="5">
         <v>37292</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="5">
+      <c r="H43" s="5">
         <v>44261</v>
       </c>
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="5">
         <v>36740</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>162</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="5">
+      <c r="H45" s="5">
         <v>44199</v>
       </c>
-      <c r="G45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="H46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="5">
+      <c r="D48" s="5">
         <v>36870</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="5">
+      <c r="H48" s="5">
         <v>44564</v>
       </c>
-      <c r="G48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="6"/>
+      <c r="H51" s="5">
         <v>45477</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E51" r:id="rId12"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F51" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -2589,7 +2745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3239,7 +3395,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3280,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3294,17 +3450,17 @@
     <col min="4" max="4" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3315,45 +3471,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.296875" customWidth="1"/>
     <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="3" width="13.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="3" max="5" width="13.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3361,23 +3536,41 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.8984375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/CSDL_Excel.xlsx
+++ b/CSDL_Excel.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="326">
   <si>
     <t>Mã độc giả</t>
   </si>
@@ -1007,33 +1007,6 @@
   </si>
   <si>
     <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số điện thoại </t>
-  </si>
-  <si>
-    <t>Số CCCD</t>
-  </si>
-  <si>
-    <t>Ảnh đại diện</t>
-  </si>
-  <si>
-    <t>Mã thủ thư</t>
-  </si>
-  <si>
-    <t>Vai trò</t>
-  </si>
-  <si>
-    <t>Những tài khoản nào là độc giả thì mã thủ thư là NULL, vai trò có giá trị là 1. Tài khoản là thủ thư thì mã độc giả là NULL, vai trò có giá trị là 2.</t>
-  </si>
-  <si>
-    <t>Họ tên</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,9 +1094,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1405,1336 +1375,1210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="G97" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.19921875" customWidth="1"/>
-    <col min="6" max="6" width="35.09765625" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" customWidth="1"/>
-    <col min="8" max="10" width="18.09765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" customWidth="1"/>
+    <col min="5" max="5" width="35.09765625" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <v>39264</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5">
+      <c r="F3" s="5">
         <v>44721</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>37902</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5">
+      <c r="F5" s="5">
         <v>45293</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
         <v>36474</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="5">
+      <c r="C8" s="5">
         <v>38510</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5">
+      <c r="F8" s="5">
         <v>45020</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5">
+      <c r="F9" s="5">
         <v>44204</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5">
+      <c r="C12" s="5">
         <v>37136</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="5">
+      <c r="F15" s="5">
         <v>45597</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="5">
+      <c r="F16" s="5">
         <v>44684</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="5">
+      <c r="F20" s="5">
         <v>44752</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="5">
+      <c r="C21" s="5">
         <v>38668</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="5">
+      <c r="F22" s="5">
         <v>44992</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="5">
+      <c r="C24" s="5">
         <v>38508</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="5">
+      <c r="F24" s="5">
         <v>44682</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="5">
+      <c r="C25" s="5">
         <v>37995</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="5">
+      <c r="F25" s="5">
         <v>45019</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="5">
+      <c r="C26" s="5">
         <v>38394</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="5">
+      <c r="F26" s="5">
         <v>45234</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="5">
+      <c r="F27" s="5">
         <v>45476</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="5">
+      <c r="F30" s="5">
         <v>45355</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="5">
+      <c r="C31" s="5">
         <v>36259</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="5">
+      <c r="F31" s="5">
         <v>44811</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="5">
+      <c r="C33" s="5">
         <v>36835</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
         <v>151</v>
       </c>
-      <c r="H33" s="5">
+      <c r="F33" s="5">
         <v>44504</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>152</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="5">
+      <c r="C35" s="5">
         <v>37567</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="5">
+      <c r="C36" s="5">
         <v>37682</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="5">
+      <c r="C38" s="5">
         <v>36016</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="5">
+      <c r="F38" s="5">
         <v>44749</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="5">
+      <c r="C39" s="5">
         <v>35491</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="5">
+      <c r="C40" s="5">
         <v>38262</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
         <v>158</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="5">
+      <c r="C43" s="5">
         <v>37292</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="5">
+      <c r="F43" s="5">
         <v>44261</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="5">
+      <c r="C44" s="5">
         <v>36740</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" t="s">
         <v>162</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" t="s">
         <v>163</v>
       </c>
-      <c r="H45" s="5">
+      <c r="F45" s="5">
         <v>44199</v>
       </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" t="s">
         <v>164</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
         <v>165</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="5">
+      <c r="C48" s="5">
         <v>36870</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>166</v>
       </c>
-      <c r="H48" s="5">
+      <c r="F48" s="5">
         <v>44564</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F50" t="s">
+      <c r="E50" t="s">
         <v>168</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="5">
+      <c r="F51" s="5">
         <v>45477</v>
       </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" t="s">
+      <c r="G51" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F51" r:id="rId12"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E51" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -2745,7 +2589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3395,7 +3239,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3436,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A10:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3450,17 +3294,17 @@
     <col min="4" max="4" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3471,64 +3315,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.296875" customWidth="1"/>
     <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="5" width="13.09765625" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3536,41 +3361,23 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
